--- a/Empirical Analysis III/Papers/Part A/Reading Allocation.xlsx
+++ b/Empirical Analysis III/Papers/Part A/Reading Allocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Manav/Documents/Skwad/Empirical Analysis III/Papers/Part A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AAC4588-3C76-2649-8BA2-C2D7DDF641FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B0886-44D1-FA42-B680-0AAD642962EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="41240" xr2:uid="{DD63ED4E-D475-3145-B7EF-A3BA843DA6E5}"/>
   </bookViews>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BC6407-0AC6-C244-970A-7D6E9A264D3B}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,5 +1064,6 @@
     <hyperlink ref="B24" r:id="rId23" display="http://jenni.uchicago.edu/econ312/papers/Kellogg_Mogstad_Pouliot_etal_2020_NBERw26624.pdf" xr:uid="{7F298EFA-8AE6-8745-B2DA-8446D2115C1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>